--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -1496,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111541118</v>
+        <v>111541122</v>
       </c>
       <c r="B9" t="n">
-        <v>94851</v>
+        <v>5112</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,38 +1508,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2569</v>
+        <v>102204</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Grönhjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Callidium aeneum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(De Geer, 1775)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>693461.6376634488</v>
+        <v>693344.0451535647</v>
       </c>
       <c r="R9" t="n">
-        <v>6551559.049034445</v>
+        <v>6551526.82974836</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1590,12 +1599,18 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1613,10 +1628,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111541122</v>
+        <v>111541128</v>
       </c>
       <c r="B10" t="n">
-        <v>5112</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1625,25 +1640,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102204</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönhjon</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium aeneum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(De Geer, 1775)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,7 +1667,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1662,10 +1677,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>693344.0451535647</v>
+        <v>693570.8046739453</v>
       </c>
       <c r="R10" t="n">
-        <v>6551526.82974836</v>
+        <v>6551451.742365629</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1727,7 +1742,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1745,10 +1760,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111541121</v>
+        <v>111541119</v>
       </c>
       <c r="B11" t="n">
-        <v>79444</v>
+        <v>5426</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1761,34 +1776,43 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1049</v>
+        <v>101410</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>693460.9606228607</v>
+        <v>693467.6220677271</v>
       </c>
       <c r="R11" t="n">
-        <v>6551521.405726598</v>
+        <v>6551532.561666255</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1833,12 +1857,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1849,7 +1879,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1867,10 +1897,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111541129</v>
+        <v>111541121</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>79444</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1879,47 +1909,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>1049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>693328.6441019299</v>
+        <v>693460.9606228607</v>
       </c>
       <c r="R12" t="n">
-        <v>6551545.628735202</v>
+        <v>6551521.405726598</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1970,7 +1991,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1981,7 +2001,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1999,10 +2019,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111541119</v>
+        <v>111541129</v>
       </c>
       <c r="B13" t="n">
-        <v>5426</v>
+        <v>5113</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2011,25 +2031,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>101410</v>
+        <v>100526</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2048,10 +2068,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>693467.6220677271</v>
+        <v>693328.6441019299</v>
       </c>
       <c r="R13" t="n">
-        <v>6551532.561666255</v>
+        <v>6551545.628735202</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2096,11 +2116,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2118,7 +2133,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2136,10 +2151,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111541115</v>
+        <v>111541120</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>79444</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2152,21 +2167,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>1049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2176,10 +2191,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>693612.9253791923</v>
+        <v>693513.2669972532</v>
       </c>
       <c r="R14" t="n">
-        <v>6551435.326171798</v>
+        <v>6551517.868690074</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2240,7 +2255,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2258,10 +2273,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111541128</v>
+        <v>111541118</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>94851</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2274,43 +2289,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>2569</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>693570.8046739453</v>
+        <v>693461.6376634488</v>
       </c>
       <c r="R15" t="n">
-        <v>6551451.742365629</v>
+        <v>6551559.049034445</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2361,18 +2367,12 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>torrgran</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2390,10 +2390,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111541120</v>
+        <v>111541115</v>
       </c>
       <c r="B16" t="n">
-        <v>79444</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2406,21 +2406,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1049</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>693513.2669972532</v>
+        <v>693612.9253791923</v>
       </c>
       <c r="R16" t="n">
-        <v>6551517.868690074</v>
+        <v>6551435.326171798</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -1496,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111541122</v>
+        <v>111541115</v>
       </c>
       <c r="B9" t="n">
-        <v>5112</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,43 +1512,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102204</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönhjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium aeneum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(De Geer, 1775)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>693344.0451535647</v>
+        <v>693612.9253791923</v>
       </c>
       <c r="R9" t="n">
-        <v>6551526.82974836</v>
+        <v>6551435.326171798</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1599,7 +1590,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1628,10 +1618,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111541128</v>
+        <v>111541118</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>94851</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1644,43 +1634,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>2569</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>693570.8046739453</v>
+        <v>693461.6376634488</v>
       </c>
       <c r="R10" t="n">
-        <v>6551451.742365629</v>
+        <v>6551559.049034445</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1731,18 +1712,12 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>torrgran</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1760,10 +1735,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111541119</v>
+        <v>111541129</v>
       </c>
       <c r="B11" t="n">
-        <v>5426</v>
+        <v>5113</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1772,25 +1747,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>101410</v>
+        <v>100526</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1809,10 +1784,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>693467.6220677271</v>
+        <v>693328.6441019299</v>
       </c>
       <c r="R11" t="n">
-        <v>6551532.561666255</v>
+        <v>6551545.628735202</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1857,11 +1832,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1879,7 +1849,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1897,10 +1867,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111541121</v>
+        <v>111541128</v>
       </c>
       <c r="B12" t="n">
-        <v>79444</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1909,38 +1879,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1049</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>693460.9606228607</v>
+        <v>693570.8046739453</v>
       </c>
       <c r="R12" t="n">
-        <v>6551521.405726598</v>
+        <v>6551451.742365629</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1991,6 +1970,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2001,7 +1981,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2019,10 +1999,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111541129</v>
+        <v>111541122</v>
       </c>
       <c r="B13" t="n">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2031,25 +2011,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100526</v>
+        <v>102204</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Grönhjon</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Callidium aeneum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(De Geer, 1775)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2068,10 +2048,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>693328.6441019299</v>
+        <v>693344.0451535647</v>
       </c>
       <c r="R13" t="n">
-        <v>6551545.628735202</v>
+        <v>6551526.82974836</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2133,7 +2113,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2151,10 +2131,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111541120</v>
+        <v>111541119</v>
       </c>
       <c r="B14" t="n">
-        <v>79444</v>
+        <v>5426</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2167,34 +2147,43 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1049</v>
+        <v>101410</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>693513.2669972532</v>
+        <v>693467.6220677271</v>
       </c>
       <c r="R14" t="n">
-        <v>6551517.868690074</v>
+        <v>6551532.561666255</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2239,12 +2228,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2255,7 +2250,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2273,10 +2268,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111541118</v>
+        <v>111541120</v>
       </c>
       <c r="B15" t="n">
-        <v>94851</v>
+        <v>79444</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2285,25 +2280,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2569</v>
+        <v>1049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2313,10 +2308,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>693461.6376634488</v>
+        <v>693513.2669972532</v>
       </c>
       <c r="R15" t="n">
-        <v>6551559.049034445</v>
+        <v>6551517.868690074</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2373,6 +2368,11 @@
       <c r="AI15" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2390,10 +2390,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111541115</v>
+        <v>111541121</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>79444</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2406,21 +2406,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>1049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>693612.9253791923</v>
+        <v>693460.9606228607</v>
       </c>
       <c r="R16" t="n">
-        <v>6551435.326171798</v>
+        <v>6551521.405726598</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -1496,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111541115</v>
+        <v>111541120</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>79444</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,21 +1512,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>1049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>693612.9253791923</v>
+        <v>693513.2669972532</v>
       </c>
       <c r="R9" t="n">
-        <v>6551435.326171798</v>
+        <v>6551517.868690074</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111541118</v>
+        <v>111541122</v>
       </c>
       <c r="B10" t="n">
-        <v>94851</v>
+        <v>5112</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1630,38 +1630,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2569</v>
+        <v>102204</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Grönhjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Callidium aeneum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(De Geer, 1775)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>693461.6376634488</v>
+        <v>693344.0451535647</v>
       </c>
       <c r="R10" t="n">
-        <v>6551559.049034445</v>
+        <v>6551526.82974836</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1712,12 +1721,18 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1735,10 +1750,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111541129</v>
+        <v>111541119</v>
       </c>
       <c r="B11" t="n">
-        <v>5113</v>
+        <v>5426</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1747,25 +1762,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100526</v>
+        <v>101410</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1784,10 +1799,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>693328.6441019299</v>
+        <v>693467.6220677271</v>
       </c>
       <c r="R11" t="n">
-        <v>6551545.628735202</v>
+        <v>6551532.561666255</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1832,6 +1847,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1849,7 +1869,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1867,10 +1887,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111541128</v>
+        <v>111541118</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>94851</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1883,43 +1903,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>2569</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>693570.8046739453</v>
+        <v>693461.6376634488</v>
       </c>
       <c r="R12" t="n">
-        <v>6551451.742365629</v>
+        <v>6551559.049034445</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1970,18 +1981,12 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>torrgran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1999,10 +2004,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111541122</v>
+        <v>111541121</v>
       </c>
       <c r="B13" t="n">
-        <v>5112</v>
+        <v>79444</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2015,43 +2020,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102204</v>
+        <v>1049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grönhjon</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium aeneum</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(De Geer, 1775)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>693344.0451535647</v>
+        <v>693460.9606228607</v>
       </c>
       <c r="R13" t="n">
-        <v>6551526.82974836</v>
+        <v>6551521.405726598</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2102,7 +2098,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2113,7 +2108,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2131,10 +2126,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111541119</v>
+        <v>111541129</v>
       </c>
       <c r="B14" t="n">
-        <v>5426</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2143,25 +2138,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>101410</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2180,10 +2175,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>693467.6220677271</v>
+        <v>693328.6441019299</v>
       </c>
       <c r="R14" t="n">
-        <v>6551532.561666255</v>
+        <v>6551545.628735202</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2228,11 +2223,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2250,7 +2240,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2268,10 +2258,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111541120</v>
+        <v>111541115</v>
       </c>
       <c r="B15" t="n">
-        <v>79444</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2284,21 +2274,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1049</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2308,10 +2298,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>693513.2669972532</v>
+        <v>693612.9253791923</v>
       </c>
       <c r="R15" t="n">
-        <v>6551517.868690074</v>
+        <v>6551435.326171798</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2372,7 +2362,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2390,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111541121</v>
+        <v>111541128</v>
       </c>
       <c r="B16" t="n">
-        <v>79444</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2402,38 +2392,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1049</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>693460.9606228607</v>
+        <v>693570.8046739453</v>
       </c>
       <c r="R16" t="n">
-        <v>6551521.405726598</v>
+        <v>6551451.742365629</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2484,6 +2483,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -1496,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111541120</v>
+        <v>111541128</v>
       </c>
       <c r="B9" t="n">
-        <v>79444</v>
+        <v>5113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,38 +1508,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1049</v>
+        <v>100526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>693513.2669972532</v>
+        <v>693570.8046739453</v>
       </c>
       <c r="R9" t="n">
-        <v>6551517.868690074</v>
+        <v>6551451.742365629</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1590,6 +1599,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1600,7 +1610,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1618,10 +1628,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111541122</v>
+        <v>111541115</v>
       </c>
       <c r="B10" t="n">
-        <v>5112</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1634,43 +1644,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102204</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönhjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium aeneum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(De Geer, 1775)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>693344.0451535647</v>
+        <v>693612.9253791923</v>
       </c>
       <c r="R10" t="n">
-        <v>6551526.82974836</v>
+        <v>6551435.326171798</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1721,7 +1722,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111541119</v>
+        <v>111541120</v>
       </c>
       <c r="B11" t="n">
-        <v>5426</v>
+        <v>79444</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1766,43 +1766,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>101410</v>
+        <v>1049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>693467.6220677271</v>
+        <v>693513.2669972532</v>
       </c>
       <c r="R11" t="n">
-        <v>6551532.561666255</v>
+        <v>6551517.868690074</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1847,18 +1838,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1869,7 +1854,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2004,10 +1989,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111541121</v>
+        <v>111541119</v>
       </c>
       <c r="B13" t="n">
-        <v>79444</v>
+        <v>5426</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2020,34 +2005,43 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1049</v>
+        <v>101410</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>693460.9606228607</v>
+        <v>693467.6220677271</v>
       </c>
       <c r="R13" t="n">
-        <v>6551521.405726598</v>
+        <v>6551532.561666255</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2092,12 +2086,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111541129</v>
+        <v>111541122</v>
       </c>
       <c r="B14" t="n">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2138,25 +2138,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100526</v>
+        <v>102204</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Grönhjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Callidium aeneum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(De Geer, 1775)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>693328.6441019299</v>
+        <v>693344.0451535647</v>
       </c>
       <c r="R14" t="n">
-        <v>6551545.628735202</v>
+        <v>6551526.82974836</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111541115</v>
+        <v>111541129</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2270,38 +2270,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>693612.9253791923</v>
+        <v>693328.6441019299</v>
       </c>
       <c r="R15" t="n">
-        <v>6551435.326171798</v>
+        <v>6551545.628735202</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2352,6 +2361,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2362,7 +2372,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2380,10 +2390,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111541128</v>
+        <v>111541121</v>
       </c>
       <c r="B16" t="n">
-        <v>5113</v>
+        <v>79444</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2392,47 +2402,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100526</v>
+        <v>1049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>693570.8046739453</v>
+        <v>693460.9606228607</v>
       </c>
       <c r="R16" t="n">
-        <v>6551451.742365629</v>
+        <v>6551521.405726598</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2483,7 +2484,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -1496,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111541128</v>
+        <v>111541119</v>
       </c>
       <c r="B9" t="n">
-        <v>5113</v>
+        <v>5426</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,25 +1508,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100526</v>
+        <v>101410</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1535,7 +1535,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>693570.8046739453</v>
+        <v>693467.6220677271</v>
       </c>
       <c r="R9" t="n">
-        <v>6551451.742365629</v>
+        <v>6551532.561666255</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1593,6 +1593,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1610,7 +1615,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1628,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111541115</v>
+        <v>111541122</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>5112</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1644,34 +1649,43 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>102204</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grönhjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium aeneum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(De Geer, 1775)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>693612.9253791923</v>
+        <v>693344.0451535647</v>
       </c>
       <c r="R10" t="n">
-        <v>6551435.326171798</v>
+        <v>6551526.82974836</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1722,6 +1736,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1750,10 +1765,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111541120</v>
+        <v>111541128</v>
       </c>
       <c r="B11" t="n">
-        <v>79444</v>
+        <v>5113</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1762,38 +1777,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1049</v>
+        <v>100526</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>693513.2669972532</v>
+        <v>693570.8046739453</v>
       </c>
       <c r="R11" t="n">
-        <v>6551517.868690074</v>
+        <v>6551451.742365629</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1844,6 +1868,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1854,7 +1879,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1872,10 +1897,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111541118</v>
+        <v>111541115</v>
       </c>
       <c r="B12" t="n">
-        <v>94851</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1884,25 +1909,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2569</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1912,10 +1937,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>693461.6376634488</v>
+        <v>693612.9253791923</v>
       </c>
       <c r="R12" t="n">
-        <v>6551559.049034445</v>
+        <v>6551435.326171798</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1972,6 +1997,11 @@
       <c r="AI12" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1989,10 +2019,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111541119</v>
+        <v>111541120</v>
       </c>
       <c r="B13" t="n">
-        <v>5426</v>
+        <v>79444</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2005,43 +2035,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>101410</v>
+        <v>1049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>693467.6220677271</v>
+        <v>693513.2669972532</v>
       </c>
       <c r="R13" t="n">
-        <v>6551532.561666255</v>
+        <v>6551517.868690074</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2086,18 +2107,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2108,7 +2123,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2126,10 +2141,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111541122</v>
+        <v>111541118</v>
       </c>
       <c r="B14" t="n">
-        <v>5112</v>
+        <v>94851</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2138,47 +2153,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>102204</v>
+        <v>2569</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grönhjon</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium aeneum</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(De Geer, 1775)</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>693344.0451535647</v>
+        <v>693461.6376634488</v>
       </c>
       <c r="R14" t="n">
-        <v>6551526.82974836</v>
+        <v>6551559.049034445</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2229,18 +2235,12 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111541129</v>
+        <v>111541121</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>79444</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2270,47 +2270,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>1049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>693328.6441019299</v>
+        <v>693460.9606228607</v>
       </c>
       <c r="R15" t="n">
-        <v>6551545.628735202</v>
+        <v>6551521.405726598</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2361,7 +2352,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2372,7 +2362,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2390,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111541121</v>
+        <v>111541129</v>
       </c>
       <c r="B16" t="n">
-        <v>79444</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2402,38 +2392,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1049</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>693460.9606228607</v>
+        <v>693328.6441019299</v>
       </c>
       <c r="R16" t="n">
-        <v>6551521.405726598</v>
+        <v>6551545.628735202</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2484,6 +2483,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -1633,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111541122</v>
+        <v>111541121</v>
       </c>
       <c r="B10" t="n">
-        <v>5112</v>
+        <v>79444</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1649,43 +1649,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102204</v>
+        <v>1049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönhjon</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium aeneum</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(De Geer, 1775)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>693344.0451535647</v>
+        <v>693460.9606228607</v>
       </c>
       <c r="R10" t="n">
-        <v>6551526.82974836</v>
+        <v>6551521.405726598</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1736,7 +1727,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1747,7 +1737,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1765,10 +1755,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111541128</v>
+        <v>111541122</v>
       </c>
       <c r="B11" t="n">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1777,25 +1767,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100526</v>
+        <v>102204</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Grönhjon</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Callidium aeneum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(De Geer, 1775)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1804,7 +1794,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1814,10 +1804,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>693570.8046739453</v>
+        <v>693344.0451535647</v>
       </c>
       <c r="R11" t="n">
-        <v>6551451.742365629</v>
+        <v>6551526.82974836</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1879,7 +1869,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1897,10 +1887,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111541115</v>
+        <v>111541129</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1909,38 +1899,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>693612.9253791923</v>
+        <v>693328.6441019299</v>
       </c>
       <c r="R12" t="n">
-        <v>6551435.326171798</v>
+        <v>6551545.628735202</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1991,6 +1990,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111541120</v>
+        <v>111541115</v>
       </c>
       <c r="B13" t="n">
-        <v>79444</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2035,21 +2035,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1049</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>693513.2669972532</v>
+        <v>693612.9253791923</v>
       </c>
       <c r="R13" t="n">
-        <v>6551517.868690074</v>
+        <v>6551435.326171798</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111541118</v>
+        <v>111541120</v>
       </c>
       <c r="B14" t="n">
-        <v>94851</v>
+        <v>79444</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2569</v>
+        <v>1049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>693461.6376634488</v>
+        <v>693513.2669972532</v>
       </c>
       <c r="R14" t="n">
-        <v>6551559.049034445</v>
+        <v>6551517.868690074</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2241,6 +2241,11 @@
       <c r="AI14" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2258,10 +2263,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111541121</v>
+        <v>111541128</v>
       </c>
       <c r="B15" t="n">
-        <v>79444</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2270,38 +2275,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1049</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>693460.9606228607</v>
+        <v>693570.8046739453</v>
       </c>
       <c r="R15" t="n">
-        <v>6551521.405726598</v>
+        <v>6551451.742365629</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2352,6 +2366,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2362,7 +2377,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2380,10 +2395,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111541129</v>
+        <v>111541118</v>
       </c>
       <c r="B16" t="n">
-        <v>5113</v>
+        <v>94851</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2396,43 +2411,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100526</v>
+        <v>2569</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>693328.6441019299</v>
+        <v>693461.6376634488</v>
       </c>
       <c r="R16" t="n">
-        <v>6551545.628735202</v>
+        <v>6551559.049034445</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2483,18 +2489,12 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>torrgran</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -2263,10 +2263,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111541128</v>
+        <v>111541118</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>94851</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2279,43 +2279,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>2569</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>693570.8046739453</v>
+        <v>693461.6376634488</v>
       </c>
       <c r="R15" t="n">
-        <v>6551451.742365629</v>
+        <v>6551559.049034445</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2366,18 +2357,12 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>torrgran</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2395,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111541118</v>
+        <v>111541128</v>
       </c>
       <c r="B16" t="n">
-        <v>94851</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2411,34 +2396,43 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2569</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>693461.6376634488</v>
+        <v>693570.8046739453</v>
       </c>
       <c r="R16" t="n">
-        <v>6551559.049034445</v>
+        <v>6551451.742365629</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2489,12 +2483,18 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -1496,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111541119</v>
+        <v>111541121</v>
       </c>
       <c r="B9" t="n">
-        <v>5426</v>
+        <v>79444</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,43 +1512,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>101410</v>
+        <v>1049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>693467.6220677271</v>
+        <v>693460.9606228607</v>
       </c>
       <c r="R9" t="n">
-        <v>6551532.561666255</v>
+        <v>6551521.405726598</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1593,18 +1584,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1615,7 +1600,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1633,10 +1618,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111541121</v>
+        <v>111541128</v>
       </c>
       <c r="B10" t="n">
-        <v>79444</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1645,38 +1630,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1049</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>693460.9606228607</v>
+        <v>693570.8046739453</v>
       </c>
       <c r="R10" t="n">
-        <v>6551521.405726598</v>
+        <v>6551451.742365629</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1727,6 +1721,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1737,7 +1732,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1887,10 +1882,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111541129</v>
+        <v>111541118</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>94851</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1903,43 +1898,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>2569</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>693328.6441019299</v>
+        <v>693461.6376634488</v>
       </c>
       <c r="R12" t="n">
-        <v>6551545.628735202</v>
+        <v>6551559.049034445</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1990,18 +1976,12 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>torrgran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2263,10 +2243,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111541118</v>
+        <v>111541119</v>
       </c>
       <c r="B15" t="n">
-        <v>94851</v>
+        <v>5426</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2275,38 +2255,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2569</v>
+        <v>101410</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>693461.6376634488</v>
+        <v>693467.6220677271</v>
       </c>
       <c r="R15" t="n">
-        <v>6551559.049034445</v>
+        <v>6551532.561666255</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2351,18 +2340,29 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111541128</v>
+        <v>111541129</v>
       </c>
       <c r="B16" t="n">
         <v>5113</v>
@@ -2419,7 +2419,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>693570.8046739453</v>
+        <v>693328.6441019299</v>
       </c>
       <c r="R16" t="n">
-        <v>6551451.742365629</v>
+        <v>6551545.628735202</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -1496,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111541121</v>
+        <v>111541118</v>
       </c>
       <c r="B9" t="n">
-        <v>79444</v>
+        <v>94851</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,25 +1508,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1049</v>
+        <v>2569</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>693460.9606228607</v>
+        <v>693461.6376634488</v>
       </c>
       <c r="R9" t="n">
-        <v>6551521.405726598</v>
+        <v>6551559.049034445</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1596,11 +1596,6 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1618,10 +1613,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111541128</v>
+        <v>111541119</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>5426</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1630,25 +1625,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>101410</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1657,7 +1652,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1667,10 +1662,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>693570.8046739453</v>
+        <v>693467.6220677271</v>
       </c>
       <c r="R10" t="n">
-        <v>6551451.742365629</v>
+        <v>6551532.561666255</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,6 +1710,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111541122</v>
+        <v>111541120</v>
       </c>
       <c r="B11" t="n">
-        <v>5112</v>
+        <v>79444</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1766,43 +1766,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102204</v>
+        <v>1049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönhjon</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Callidium aeneum</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(De Geer, 1775)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>693344.0451535647</v>
+        <v>693513.2669972532</v>
       </c>
       <c r="R11" t="n">
-        <v>6551526.82974836</v>
+        <v>6551517.868690074</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1853,7 +1844,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1864,7 +1854,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1882,10 +1872,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111541118</v>
+        <v>111541128</v>
       </c>
       <c r="B12" t="n">
-        <v>94851</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1898,34 +1888,43 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2569</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>693461.6376634488</v>
+        <v>693570.8046739453</v>
       </c>
       <c r="R12" t="n">
-        <v>6551559.049034445</v>
+        <v>6551451.742365629</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1976,12 +1975,18 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
           <t>Barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2121,10 +2126,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111541120</v>
+        <v>111541129</v>
       </c>
       <c r="B14" t="n">
-        <v>79444</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2133,38 +2138,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1049</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>693513.2669972532</v>
+        <v>693328.6441019299</v>
       </c>
       <c r="R14" t="n">
-        <v>6551517.868690074</v>
+        <v>6551545.628735202</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2215,6 +2229,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2225,7 +2240,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>silverstubbe av tall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2243,10 +2258,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111541119</v>
+        <v>111541121</v>
       </c>
       <c r="B15" t="n">
-        <v>5426</v>
+        <v>79444</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2259,43 +2274,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>101410</v>
+        <v>1049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ornö, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>693467.6220677271</v>
+        <v>693460.9606228607</v>
       </c>
       <c r="R15" t="n">
-        <v>6551532.561666255</v>
+        <v>6551521.405726598</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2340,18 +2346,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>En gammal tall med kläckhål här och var. Om det är färskt eller gammalt är svårt sia om.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>silverstubbe av tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111541129</v>
+        <v>111541122</v>
       </c>
       <c r="B16" t="n">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2392,25 +2392,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100526</v>
+        <v>102204</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Grönhjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Callidium aeneum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(De Geer, 1775)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>693328.6441019299</v>
+        <v>693344.0451535647</v>
       </c>
       <c r="R16" t="n">
-        <v>6551545.628735202</v>
+        <v>6551526.82974836</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2510,6 +2510,231 @@
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112175179</v>
+      </c>
+      <c r="B17" t="n">
+        <v>93388</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Stora Körkroka (Stora Körkroka), Srm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>693483.7626403375</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6551529.771546691</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Måns Persson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Måns Persson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112170170</v>
+      </c>
+      <c r="B18" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>693556.9313844121</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6551603.538506057</v>
+      </c>
+      <c r="S18" t="n">
+        <v>50</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2512,10 +2512,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112175179</v>
+        <v>112170166</v>
       </c>
       <c r="B17" t="n">
-        <v>93388</v>
+        <v>56414</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2524,42 +2524,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Stora Körkroka (Stora Körkroka), Srm</t>
+          <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>693483.7626403375</v>
+        <v>693563.7483806423</v>
       </c>
       <c r="R17" t="n">
-        <v>6551529.771546691</v>
+        <v>6551560.607546343</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2588,7 +2587,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2598,7 +2597,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2613,22 +2617,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112170170</v>
+        <v>112170165</v>
       </c>
       <c r="B18" t="n">
-        <v>56543</v>
+        <v>56414</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2641,21 +2645,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2665,13 +2669,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>693556.9313844121</v>
+        <v>693518.2336789535</v>
       </c>
       <c r="R18" t="n">
-        <v>6551603.538506057</v>
+        <v>6551572.730365619</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2700,7 +2704,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2710,7 +2714,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Granlåga med hål från hål från födosök då granen levde.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2734,6 +2743,1513 @@
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112170154</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90709</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>693475.1014081499</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6551609.187847034</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>15:52</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>15:52</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112170155</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>693475.1014081499</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6551609.187847034</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>15:52</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>15:52</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112170171</v>
+      </c>
+      <c r="B21" t="n">
+        <v>94173</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>693557.0353778654</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6551601.483023443</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Grov barrträdslåga.</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112170170</v>
+      </c>
+      <c r="B22" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>693556.9313844121</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6551603.538506057</v>
+      </c>
+      <c r="S22" t="n">
+        <v>50</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112170164</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4717</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>102306</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Granbarkgnagare</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Microbregma emarginatum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>693509.9861858041</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6551541.916909019</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Larv under barkflaga med ett kläckhål.</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112170169</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8367</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>106554</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Björksplintborre</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Scolytus ratzeburgii</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>693585.3018716839</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6551593.639854326</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Björklåga med delar av barken kvar.</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Betula # Björklåga med delar av barken kvar.</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112170172</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4717</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>102306</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Granbarkgnagare</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Microbregma emarginatum</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>693532.7419562128</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6551643.014212629</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112170161</v>
+      </c>
+      <c r="B26" t="n">
+        <v>94851</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2569</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Stor revmossa</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Bazzania trilobata</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(L.) Gray</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>693459.7653031567</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6551545.044192652</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112170160</v>
+      </c>
+      <c r="B27" t="n">
+        <v>93171</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Herzogiella seligeri</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>693345.4718540263</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6551559.874040164</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>15:13</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>15:13</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112175179</v>
+      </c>
+      <c r="B28" t="n">
+        <v>93388</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Stora Körkroka (Stora Körkroka), Srm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>693483.7626403375</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6551529.771546691</v>
+      </c>
+      <c r="S28" t="n">
+        <v>25</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Måns Persson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Måns Persson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112170168</v>
+      </c>
+      <c r="B29" t="n">
+        <v>93171</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Herzogiella seligeri</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>693567.1647232053</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6551574.690546458</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>14:03</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>14:03</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Klen tallåga i sumpmark.</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112170162</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5426</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>101410</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Reliktbock</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Nothorhina muricata</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Dalman, 1817)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>693466.8733974444</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6551537.160549269</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -2512,10 +2512,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112170166</v>
+        <v>112170155</v>
       </c>
       <c r="B17" t="n">
-        <v>56414</v>
+        <v>90689</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>5966</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>693563.7483806423</v>
+        <v>693475</v>
       </c>
       <c r="R17" t="n">
-        <v>6551560.607546343</v>
+        <v>6551609</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2597,12 +2597,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2613,6 +2608,11 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2629,7 +2629,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112170165</v>
+        <v>112170166</v>
       </c>
       <c r="B18" t="n">
         <v>56414</v>
@@ -2669,10 +2669,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>693518.2336789535</v>
+        <v>693564</v>
       </c>
       <c r="R18" t="n">
-        <v>6551572.730365619</v>
+        <v>6551561</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Granlåga med hål från hål från födosök då granen levde.</t>
+          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2746,10 +2746,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112170154</v>
+        <v>112170160</v>
       </c>
       <c r="B19" t="n">
-        <v>90709</v>
+        <v>93171</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2758,47 +2758,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5448</v>
+        <v>2818</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>693475.1014081499</v>
+        <v>693345</v>
       </c>
       <c r="R19" t="n">
-        <v>6551609.187847034</v>
+        <v>6551560</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2830,7 +2821,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2840,7 +2831,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2867,10 +2858,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112170155</v>
+        <v>112170171</v>
       </c>
       <c r="B20" t="n">
-        <v>90689</v>
+        <v>94173</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2879,25 +2870,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5966</v>
+        <v>2590</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2907,10 +2898,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>693475.1014081499</v>
+        <v>693557</v>
       </c>
       <c r="R20" t="n">
-        <v>6551609.187847034</v>
+        <v>6551601</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2942,7 +2933,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2952,7 +2943,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2964,9 +2955,9 @@
       <c r="AG20" t="b">
         <v>0</v>
       </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Grov barrträdslåga.</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2984,10 +2975,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112170171</v>
+        <v>112170172</v>
       </c>
       <c r="B21" t="n">
-        <v>94173</v>
+        <v>4717</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3000,34 +2991,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2590</v>
+        <v>102306</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>693557.0353778654</v>
+        <v>693533</v>
       </c>
       <c r="R21" t="n">
-        <v>6551601.483023443</v>
+        <v>6551643</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3059,7 +3055,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3069,7 +3065,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3081,9 +3077,24 @@
       <c r="AG21" t="b">
         <v>0</v>
       </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Grov barrträdslåga.</t>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3101,10 +3112,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112170170</v>
+        <v>112170161</v>
       </c>
       <c r="B22" t="n">
-        <v>56543</v>
+        <v>94851</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3113,25 +3124,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>2569</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3141,13 +3152,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>693556.9313844121</v>
+        <v>693460</v>
       </c>
       <c r="R22" t="n">
-        <v>6551603.538506057</v>
+        <v>6551545</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3176,7 +3187,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3186,7 +3197,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3213,10 +3224,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112170164</v>
+        <v>112170154</v>
       </c>
       <c r="B23" t="n">
-        <v>4717</v>
+        <v>90709</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3225,25 +3236,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>102306</v>
+        <v>5448</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3253,27 +3264,19 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>693509.9861858041</v>
+        <v>693475</v>
       </c>
       <c r="R23" t="n">
-        <v>6551541.916909019</v>
+        <v>6551609</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3305,7 +3308,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3315,12 +3318,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Larv under barkflaga med ett kläckhål.</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3329,29 +3327,8 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Äldre grovbarkig levande gran.</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3368,10 +3345,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112170169</v>
+        <v>112170162</v>
       </c>
       <c r="B24" t="n">
-        <v>8367</v>
+        <v>5426</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3380,43 +3357,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106554</v>
+        <v>101410</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>693585.3018716839</v>
+        <v>693467</v>
       </c>
       <c r="R24" t="n">
-        <v>6551593.639854326</v>
+        <v>6551537</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3448,7 +3429,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3458,7 +3439,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3467,27 +3448,28 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>Björklåga med delar av barken kvar.</t>
+          <t>Gammal solbelyst tall med flagnande gulfärgad bark.</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Betula # Björklåga med delar av barken kvar.</t>
+          <t>Pinus sylvestris # Gammal solbelyst tall med flagnande gulfärgad bark.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3505,7 +3487,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112170172</v>
+        <v>112170164</v>
       </c>
       <c r="B25" t="n">
         <v>4717</v>
@@ -3538,22 +3520,34 @@
           <t>(Duftschmid, 1825)</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>693532.7419562128</v>
+        <v>693510</v>
       </c>
       <c r="R25" t="n">
-        <v>6551643.014212629</v>
+        <v>6551542</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3585,7 +3579,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3595,7 +3589,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Larv under barkflaga med ett kläckhål.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3604,6 +3603,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112170161</v>
+        <v>112175179</v>
       </c>
       <c r="B26" t="n">
-        <v>94851</v>
+        <v>93388</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3658,37 +3658,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2569</v>
+        <v>2180</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Gråberget, Ornö, Srm</t>
+          <t>Stora Körkroka (Stora Körkroka), Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693459.7653031567</v>
+        <v>693484</v>
       </c>
       <c r="R26" t="n">
-        <v>6551545.044192652</v>
+        <v>6551530</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3717,7 +3718,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3727,7 +3728,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3742,22 +3743,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112170160</v>
+        <v>112170170</v>
       </c>
       <c r="B27" t="n">
-        <v>93171</v>
+        <v>56543</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3766,25 +3767,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2818</v>
+        <v>103021</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3794,13 +3795,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>693345.4718540263</v>
+        <v>693557</v>
       </c>
       <c r="R27" t="n">
-        <v>6551559.874040164</v>
+        <v>6551604</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3829,7 +3830,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3839,7 +3840,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3866,10 +3867,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112175179</v>
+        <v>112170165</v>
       </c>
       <c r="B28" t="n">
-        <v>93388</v>
+        <v>56414</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3878,42 +3879,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Stora Körkroka (Stora Körkroka), Srm</t>
+          <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693483.7626403375</v>
+        <v>693518</v>
       </c>
       <c r="R28" t="n">
-        <v>6551529.771546691</v>
+        <v>6551573</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3952,7 +3952,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Granlåga med hål från hål från födosök då granen levde.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3967,22 +3972,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170168</v>
+        <v>112170169</v>
       </c>
       <c r="B29" t="n">
-        <v>93171</v>
+        <v>8367</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3995,34 +4000,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2818</v>
+        <v>106554</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>693567.1647232053</v>
+        <v>693585</v>
       </c>
       <c r="R29" t="n">
-        <v>6551574.690546458</v>
+        <v>6551594</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4054,7 +4064,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4064,7 +4074,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4078,22 +4088,22 @@
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>Klen tallåga i sumpmark.</t>
+          <t>Björklåga med delar av barken kvar.</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
+          <t>Betula # Björklåga med delar av barken kvar.</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4111,10 +4121,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112170162</v>
+        <v>112170168</v>
       </c>
       <c r="B30" t="n">
-        <v>5426</v>
+        <v>93171</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4123,47 +4133,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>101410</v>
+        <v>2818</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>693466.8733974444</v>
+        <v>693567</v>
       </c>
       <c r="R30" t="n">
-        <v>6551537.160549269</v>
+        <v>6551575</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4195,7 +4196,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4205,7 +4206,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4214,7 +4215,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4230,12 +4230,12 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+          <t>Klen tallåga i sumpmark.</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -2512,10 +2512,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112170155</v>
+        <v>112170161</v>
       </c>
       <c r="B17" t="n">
-        <v>90689</v>
+        <v>95006</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2524,25 +2524,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5966</v>
+        <v>2569</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>693475</v>
+        <v>693460</v>
       </c>
       <c r="R17" t="n">
-        <v>6551609</v>
+        <v>6551545</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2608,11 +2608,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2629,10 +2624,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112170166</v>
+        <v>112170160</v>
       </c>
       <c r="B18" t="n">
-        <v>56414</v>
+        <v>93320</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2641,25 +2636,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>2818</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2669,10 +2664,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>693564</v>
+        <v>693345</v>
       </c>
       <c r="R18" t="n">
-        <v>6551561</v>
+        <v>6551560</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2704,7 +2699,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2714,12 +2709,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2746,10 +2736,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112170160</v>
+        <v>112170155</v>
       </c>
       <c r="B19" t="n">
-        <v>93171</v>
+        <v>90823</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2758,25 +2748,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2818</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2786,10 +2776,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>693345</v>
+        <v>693475</v>
       </c>
       <c r="R19" t="n">
-        <v>6551560</v>
+        <v>6551609</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2821,7 +2811,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2831,7 +2821,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2842,6 +2832,11 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2858,10 +2853,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112170171</v>
+        <v>112170170</v>
       </c>
       <c r="B20" t="n">
-        <v>94173</v>
+        <v>56575</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2870,25 +2865,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2590</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2901,10 +2896,10 @@
         <v>693557</v>
       </c>
       <c r="R20" t="n">
-        <v>6551601</v>
+        <v>6551604</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2954,11 +2949,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Grov barrträdslåga.</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2975,10 +2965,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112170172</v>
+        <v>112170165</v>
       </c>
       <c r="B21" t="n">
-        <v>4717</v>
+        <v>56446</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2987,43 +2977,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>102306</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>693533</v>
+        <v>693518</v>
       </c>
       <c r="R21" t="n">
-        <v>6551643</v>
+        <v>6551573</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3055,7 +3040,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3065,7 +3050,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Granlåga med hål från hål från födosök då granen levde.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3076,26 +3066,6 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>Äldre grovbarkig levande gran.</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3112,10 +3082,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112170161</v>
+        <v>112170172</v>
       </c>
       <c r="B22" t="n">
-        <v>94851</v>
+        <v>4717</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3128,34 +3098,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2569</v>
+        <v>102306</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>693460</v>
+        <v>693533</v>
       </c>
       <c r="R22" t="n">
-        <v>6551545</v>
+        <v>6551643</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3187,7 +3162,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3197,7 +3172,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3208,6 +3183,26 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3224,10 +3219,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112170154</v>
+        <v>112170168</v>
       </c>
       <c r="B23" t="n">
-        <v>90709</v>
+        <v>93320</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3236,47 +3231,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5448</v>
+        <v>2818</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>693475</v>
+        <v>693567</v>
       </c>
       <c r="R23" t="n">
-        <v>6551609</v>
+        <v>6551575</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3308,7 +3294,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3318,7 +3304,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3329,6 +3315,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Klen tallåga i sumpmark.</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3487,10 +3493,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112170164</v>
+        <v>112170154</v>
       </c>
       <c r="B25" t="n">
-        <v>4717</v>
+        <v>90843</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3499,25 +3505,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>102306</v>
+        <v>5448</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3527,27 +3533,19 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>693510</v>
+        <v>693475</v>
       </c>
       <c r="R25" t="n">
-        <v>6551542</v>
+        <v>6551609</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3579,7 +3577,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3589,12 +3587,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Larv under barkflaga med ett kläckhål.</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3603,29 +3596,8 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>Äldre grovbarkig levande gran.</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3642,10 +3614,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112175179</v>
+        <v>112170164</v>
       </c>
       <c r="B26" t="n">
-        <v>93388</v>
+        <v>4717</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3658,38 +3630,54 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2180</v>
+        <v>102306</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Stora Körkroka (Stora Körkroka), Srm</t>
+          <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693484</v>
+        <v>693510</v>
       </c>
       <c r="R26" t="n">
-        <v>6551530</v>
+        <v>6551542</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3718,7 +3706,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3728,7 +3716,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Larv under barkflaga med ett kläckhål.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3737,28 +3730,49 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112170170</v>
+        <v>112170171</v>
       </c>
       <c r="B27" t="n">
-        <v>56543</v>
+        <v>94326</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3767,25 +3781,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>103021</v>
+        <v>2590</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3798,10 +3812,10 @@
         <v>693557</v>
       </c>
       <c r="R27" t="n">
-        <v>6551604</v>
+        <v>6551601</v>
       </c>
       <c r="S27" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3851,6 +3865,11 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Grov barrträdslåga.</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3867,10 +3886,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112170165</v>
+        <v>112170169</v>
       </c>
       <c r="B28" t="n">
-        <v>56414</v>
+        <v>8367</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3879,38 +3898,43 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>106554</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693518</v>
+        <v>693585</v>
       </c>
       <c r="R28" t="n">
-        <v>6551573</v>
+        <v>6551594</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3942,7 +3966,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3952,12 +3976,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Granlåga med hål från hål från födosök då granen levde.</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3968,6 +3987,26 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Björklåga med delar av barken kvar.</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Betula # Björklåga med delar av barken kvar.</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3984,10 +4023,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170169</v>
+        <v>112170166</v>
       </c>
       <c r="B29" t="n">
-        <v>8367</v>
+        <v>56446</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3996,43 +4035,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>106554</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>693585</v>
+        <v>693564</v>
       </c>
       <c r="R29" t="n">
-        <v>6551594</v>
+        <v>6551561</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4064,7 +4098,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4074,7 +4108,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4085,26 +4124,6 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Björklåga med delar av barken kvar.</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Betula # Björklåga med delar av barken kvar.</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -4121,10 +4140,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112170168</v>
+        <v>112175179</v>
       </c>
       <c r="B30" t="n">
-        <v>93171</v>
+        <v>93539</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4137,37 +4156,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2818</v>
+        <v>2180</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Gråberget, Ornö, Srm</t>
+          <t>Stora Körkroka (Stora Körkroka), Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>693567</v>
+        <v>693484</v>
       </c>
       <c r="R30" t="n">
-        <v>6551575</v>
+        <v>6551530</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4196,7 +4216,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4206,7 +4226,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4217,36 +4237,16 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Klen tallåga i sumpmark.</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -3886,10 +3886,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112170169</v>
+        <v>112170166</v>
       </c>
       <c r="B28" t="n">
-        <v>8367</v>
+        <v>56446</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3898,43 +3898,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106554</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693585</v>
+        <v>693564</v>
       </c>
       <c r="R28" t="n">
-        <v>6551594</v>
+        <v>6551561</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3966,7 +3961,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3976,7 +3971,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3987,26 +3987,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Björklåga med delar av barken kvar.</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Betula # Björklåga med delar av barken kvar.</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -4023,10 +4003,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170166</v>
+        <v>112170169</v>
       </c>
       <c r="B29" t="n">
-        <v>56446</v>
+        <v>8367</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4035,38 +4015,43 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>106554</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>693564</v>
+        <v>693585</v>
       </c>
       <c r="R29" t="n">
-        <v>6551561</v>
+        <v>6551594</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4098,7 +4083,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4108,12 +4093,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4124,6 +4104,26 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Björklåga med delar av barken kvar.</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Betula # Björklåga med delar av barken kvar.</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -2512,10 +2512,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112170161</v>
+        <v>112170154</v>
       </c>
       <c r="B17" t="n">
-        <v>95006</v>
+        <v>90857</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2524,38 +2524,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2569</v>
+        <v>5448</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>693460</v>
+        <v>693475</v>
       </c>
       <c r="R17" t="n">
-        <v>6551545</v>
+        <v>6551609</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2587,7 +2596,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2597,7 +2606,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2624,10 +2633,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112170160</v>
+        <v>112170172</v>
       </c>
       <c r="B18" t="n">
-        <v>93320</v>
+        <v>4717</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2640,34 +2649,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2818</v>
+        <v>102306</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>693345</v>
+        <v>693533</v>
       </c>
       <c r="R18" t="n">
-        <v>6551560</v>
+        <v>6551643</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2699,7 +2713,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2709,7 +2723,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2720,6 +2734,26 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2736,10 +2770,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112170155</v>
+        <v>112170162</v>
       </c>
       <c r="B19" t="n">
-        <v>90823</v>
+        <v>5426</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2752,34 +2786,43 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>101410</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>693475</v>
+        <v>693467</v>
       </c>
       <c r="R19" t="n">
-        <v>6551609</v>
+        <v>6551537</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2811,7 +2854,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2821,7 +2864,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2830,12 +2873,28 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal solbelyst tall med flagnande gulfärgad bark.</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2853,10 +2912,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112170170</v>
+        <v>112170165</v>
       </c>
       <c r="B20" t="n">
-        <v>56575</v>
+        <v>56446</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2869,21 +2928,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2893,13 +2952,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>693557</v>
+        <v>693518</v>
       </c>
       <c r="R20" t="n">
-        <v>6551604</v>
+        <v>6551573</v>
       </c>
       <c r="S20" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2928,7 +2987,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2938,7 +2997,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Granlåga med hål från hål från födosök då granen levde.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2965,10 +3029,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112170165</v>
+        <v>112170155</v>
       </c>
       <c r="B21" t="n">
-        <v>56446</v>
+        <v>90837</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2981,21 +3045,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>5966</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3005,10 +3069,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>693518</v>
+        <v>693475</v>
       </c>
       <c r="R21" t="n">
-        <v>6551573</v>
+        <v>6551609</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3040,7 +3104,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3050,12 +3114,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Granlåga med hål från hål från födosök då granen levde.</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3066,6 +3125,11 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3082,7 +3146,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112170172</v>
+        <v>112170164</v>
       </c>
       <c r="B22" t="n">
         <v>4717</v>
@@ -3115,22 +3179,34 @@
           <t>(Duftschmid, 1825)</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>693533</v>
+        <v>693510</v>
       </c>
       <c r="R22" t="n">
-        <v>6551643</v>
+        <v>6551542</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3162,7 +3238,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3172,7 +3248,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Larv under barkflaga med ett kläckhål.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3181,6 +3262,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3219,10 +3301,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112170168</v>
+        <v>112175179</v>
       </c>
       <c r="B23" t="n">
-        <v>93320</v>
+        <v>93553</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3235,37 +3317,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2818</v>
+        <v>2180</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Gråberget, Ornö, Srm</t>
+          <t>Stora Körkroka (Stora Körkroka), Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>693567</v>
+        <v>693484</v>
       </c>
       <c r="R23" t="n">
-        <v>6551575</v>
+        <v>6551530</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3294,7 +3377,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3304,7 +3387,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3315,46 +3398,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Klen tallåga i sumpmark.</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112170162</v>
+        <v>112170169</v>
       </c>
       <c r="B24" t="n">
-        <v>5426</v>
+        <v>8367</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3363,47 +3426,43 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>101410</v>
+        <v>106554</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>693467</v>
+        <v>693585</v>
       </c>
       <c r="R24" t="n">
-        <v>6551537</v>
+        <v>6551594</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3435,7 +3494,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3445,7 +3504,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3454,28 +3513,27 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+          <t>Björklåga med delar av barken kvar.</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+          <t>Betula # Björklåga med delar av barken kvar.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3493,10 +3551,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112170154</v>
+        <v>112170166</v>
       </c>
       <c r="B25" t="n">
-        <v>90843</v>
+        <v>56446</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3509,43 +3567,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5448</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>693475</v>
+        <v>693564</v>
       </c>
       <c r="R25" t="n">
-        <v>6551609</v>
+        <v>6551561</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3577,7 +3626,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3587,7 +3636,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3614,10 +3668,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112170164</v>
+        <v>112170170</v>
       </c>
       <c r="B26" t="n">
-        <v>4717</v>
+        <v>56575</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3626,58 +3680,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>102306</v>
+        <v>103021</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693510</v>
+        <v>693557</v>
       </c>
       <c r="R26" t="n">
-        <v>6551542</v>
+        <v>6551604</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3706,7 +3743,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3716,12 +3753,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Larv under barkflaga med ett kläckhål.</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3730,29 +3762,8 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>Äldre grovbarkig levande gran.</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3769,10 +3780,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112170171</v>
+        <v>112170168</v>
       </c>
       <c r="B27" t="n">
-        <v>94326</v>
+        <v>93334</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3785,21 +3796,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3809,10 +3820,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>693557</v>
+        <v>693567</v>
       </c>
       <c r="R27" t="n">
-        <v>6551601</v>
+        <v>6551575</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3844,7 +3855,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3854,7 +3865,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3866,9 +3877,24 @@
       <c r="AG27" t="b">
         <v>0</v>
       </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Klen tallåga i sumpmark.</t>
+        </is>
+      </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Grov barrträdslåga.</t>
+          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3886,10 +3912,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112170166</v>
+        <v>112170171</v>
       </c>
       <c r="B28" t="n">
-        <v>56446</v>
+        <v>94340</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3898,25 +3924,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>2590</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3926,10 +3952,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693564</v>
+        <v>693557</v>
       </c>
       <c r="R28" t="n">
-        <v>6551561</v>
+        <v>6551601</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3961,7 +3987,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3971,12 +3997,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3987,6 +4008,11 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Grov barrträdslåga.</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -4003,10 +4029,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170169</v>
+        <v>112170161</v>
       </c>
       <c r="B29" t="n">
-        <v>8367</v>
+        <v>95020</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4019,39 +4045,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>106554</v>
+        <v>2569</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>693585</v>
+        <v>693460</v>
       </c>
       <c r="R29" t="n">
-        <v>6551594</v>
+        <v>6551545</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4083,7 +4104,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4093,7 +4114,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4104,26 +4125,6 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Björklåga med delar av barken kvar.</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Betula # Björklåga med delar av barken kvar.</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -4140,10 +4141,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112175179</v>
+        <v>112170160</v>
       </c>
       <c r="B30" t="n">
-        <v>93539</v>
+        <v>93334</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4156,38 +4157,37 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2180</v>
+        <v>2818</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Stora Körkroka (Stora Körkroka), Srm</t>
+          <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>693484</v>
+        <v>693345</v>
       </c>
       <c r="R30" t="n">
-        <v>6551530</v>
+        <v>6551560</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4241,12 +4241,12 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -2512,10 +2512,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112170154</v>
+        <v>112170165</v>
       </c>
       <c r="B17" t="n">
-        <v>90857</v>
+        <v>56446</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2528,43 +2528,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5448</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>693475</v>
+        <v>693518</v>
       </c>
       <c r="R17" t="n">
-        <v>6551609</v>
+        <v>6551573</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2596,7 +2587,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2606,7 +2597,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Granlåga med hål från hål från födosök då granen levde.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2633,10 +2629,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112170172</v>
+        <v>112175179</v>
       </c>
       <c r="B18" t="n">
-        <v>4717</v>
+        <v>93553</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2649,42 +2645,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>102306</v>
+        <v>2180</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Gråberget, Ornö, Srm</t>
+          <t>Stora Körkroka (Stora Körkroka), Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>693533</v>
+        <v>693484</v>
       </c>
       <c r="R18" t="n">
-        <v>6551643</v>
+        <v>6551530</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2713,7 +2705,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2723,7 +2715,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2734,46 +2726,26 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>Äldre grovbarkig levande gran.</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112170162</v>
+        <v>112170170</v>
       </c>
       <c r="B19" t="n">
-        <v>5426</v>
+        <v>56575</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2786,46 +2758,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>101410</v>
+        <v>103021</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>693467</v>
+        <v>693557</v>
       </c>
       <c r="R19" t="n">
-        <v>6551537</v>
+        <v>6551604</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2854,7 +2817,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2864,7 +2827,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2873,29 +2836,8 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Gammal solbelyst tall med flagnande gulfärgad bark.</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Gammal solbelyst tall med flagnande gulfärgad bark.</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2912,7 +2854,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112170165</v>
+        <v>112170166</v>
       </c>
       <c r="B20" t="n">
         <v>56446</v>
@@ -2952,10 +2894,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>693518</v>
+        <v>693564</v>
       </c>
       <c r="R20" t="n">
-        <v>6551573</v>
+        <v>6551561</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2987,7 +2929,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2997,12 +2939,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Granlåga med hål från hål från födosök då granen levde.</t>
+          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3146,10 +3088,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112170164</v>
+        <v>112170160</v>
       </c>
       <c r="B22" t="n">
-        <v>4717</v>
+        <v>93334</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3162,51 +3104,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>102306</v>
+        <v>2818</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>693510</v>
+        <v>693345</v>
       </c>
       <c r="R22" t="n">
-        <v>6551542</v>
+        <v>6551560</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3238,7 +3163,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3248,12 +3173,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Larv under barkflaga med ett kläckhål.</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3262,29 +3182,8 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Äldre grovbarkig levande gran.</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3301,10 +3200,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112175179</v>
+        <v>112170162</v>
       </c>
       <c r="B23" t="n">
-        <v>93553</v>
+        <v>5426</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3313,42 +3212,50 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2180</v>
+        <v>101410</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Stora Körkroka (Stora Körkroka), Srm</t>
+          <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>693484</v>
+        <v>693467</v>
       </c>
       <c r="R23" t="n">
-        <v>6551530</v>
+        <v>6551537</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3377,7 +3284,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3387,7 +3294,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3396,28 +3303,49 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112170169</v>
+        <v>112170161</v>
       </c>
       <c r="B24" t="n">
-        <v>8367</v>
+        <v>95020</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3430,39 +3358,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106554</v>
+        <v>2569</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>693585</v>
+        <v>693460</v>
       </c>
       <c r="R24" t="n">
-        <v>6551594</v>
+        <v>6551545</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3494,7 +3417,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3504,7 +3427,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3515,26 +3438,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Björklåga med delar av barken kvar.</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Betula # Björklåga med delar av barken kvar.</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3551,10 +3454,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112170166</v>
+        <v>112170169</v>
       </c>
       <c r="B25" t="n">
-        <v>56446</v>
+        <v>8367</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3563,38 +3466,43 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>106554</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>693564</v>
+        <v>693585</v>
       </c>
       <c r="R25" t="n">
-        <v>6551561</v>
+        <v>6551594</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3626,7 +3534,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3636,12 +3544,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Högstubbe från gran med stora hackade hål från födosök.</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3652,6 +3555,26 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Björklåga med delar av barken kvar.</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Betula # Björklåga med delar av barken kvar.</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3668,10 +3591,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112170170</v>
+        <v>112170172</v>
       </c>
       <c r="B26" t="n">
-        <v>56575</v>
+        <v>4717</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3680,41 +3603,46 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>103021</v>
+        <v>102306</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693557</v>
+        <v>693533</v>
       </c>
       <c r="R26" t="n">
-        <v>6551604</v>
+        <v>6551643</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3743,7 +3671,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3753,7 +3681,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3764,6 +3692,26 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3780,10 +3728,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112170168</v>
+        <v>112170154</v>
       </c>
       <c r="B27" t="n">
-        <v>93334</v>
+        <v>90857</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3792,38 +3740,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2818</v>
+        <v>5448</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>693567</v>
+        <v>693475</v>
       </c>
       <c r="R27" t="n">
-        <v>6551575</v>
+        <v>6551609</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3855,7 +3812,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3865,7 +3822,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3876,26 +3833,6 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Klen tallåga i sumpmark.</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3912,10 +3849,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112170171</v>
+        <v>112170164</v>
       </c>
       <c r="B28" t="n">
-        <v>94340</v>
+        <v>4717</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3928,34 +3865,51 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2590</v>
+        <v>102306</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693557</v>
+        <v>693510</v>
       </c>
       <c r="R28" t="n">
-        <v>6551601</v>
+        <v>6551542</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3987,7 +3941,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3997,7 +3951,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Larv under barkflaga med ett kläckhål.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4006,12 +3965,28 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Grov barrträdslåga.</t>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4029,10 +4004,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170161</v>
+        <v>112170171</v>
       </c>
       <c r="B29" t="n">
-        <v>95020</v>
+        <v>94340</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4045,21 +4020,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2569</v>
+        <v>2590</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4069,10 +4044,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>693460</v>
+        <v>693557</v>
       </c>
       <c r="R29" t="n">
-        <v>6551545</v>
+        <v>6551601</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4104,7 +4079,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4114,7 +4089,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4125,6 +4100,11 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Grov barrträdslåga.</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -4141,7 +4121,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112170160</v>
+        <v>112170168</v>
       </c>
       <c r="B30" t="n">
         <v>93334</v>
@@ -4181,10 +4161,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>693345</v>
+        <v>693567</v>
       </c>
       <c r="R30" t="n">
-        <v>6551560</v>
+        <v>6551575</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4216,7 +4196,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4226,7 +4206,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4237,6 +4217,26 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Klen tallåga i sumpmark.</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">

--- a/artfynd/A 67894-2021.xlsx
+++ b/artfynd/A 67894-2021.xlsx
@@ -2512,10 +2512,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112170165</v>
+        <v>112170162</v>
       </c>
       <c r="B17" t="n">
-        <v>56446</v>
+        <v>5426</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2528,34 +2528,43 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>101410</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>693518</v>
+        <v>693467</v>
       </c>
       <c r="R17" t="n">
-        <v>6551573</v>
+        <v>6551537</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2587,7 +2596,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2597,12 +2606,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Granlåga med hål från hål från födosök då granen levde.</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2611,8 +2615,29 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2629,10 +2654,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112175179</v>
+        <v>112170172</v>
       </c>
       <c r="B18" t="n">
-        <v>93553</v>
+        <v>4717</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2645,38 +2670,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2180</v>
+        <v>102306</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Stora Körkroka (Stora Körkroka), Srm</t>
+          <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>693484</v>
+        <v>693533</v>
       </c>
       <c r="R18" t="n">
-        <v>6551530</v>
+        <v>6551643</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2705,7 +2734,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2715,7 +2744,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2726,26 +2755,46 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Måns Persson</t>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112170170</v>
+        <v>112170155</v>
       </c>
       <c r="B19" t="n">
-        <v>56575</v>
+        <v>90837</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2758,21 +2807,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103021</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2782,13 +2831,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>693557</v>
+        <v>693475</v>
       </c>
       <c r="R19" t="n">
-        <v>6551604</v>
+        <v>6551609</v>
       </c>
       <c r="S19" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2817,7 +2866,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2827,7 +2876,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2838,6 +2887,11 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2971,10 +3025,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112170155</v>
+        <v>112170161</v>
       </c>
       <c r="B21" t="n">
-        <v>90837</v>
+        <v>95020</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2983,25 +3037,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5966</v>
+        <v>2569</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3011,10 +3065,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>693475</v>
+        <v>693460</v>
       </c>
       <c r="R21" t="n">
-        <v>6551609</v>
+        <v>6551545</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3046,7 +3100,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3056,7 +3110,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3067,11 +3121,6 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3088,10 +3137,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112170160</v>
+        <v>112170165</v>
       </c>
       <c r="B22" t="n">
-        <v>93334</v>
+        <v>56446</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3100,25 +3149,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2818</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3128,10 +3177,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>693345</v>
+        <v>693518</v>
       </c>
       <c r="R22" t="n">
-        <v>6551560</v>
+        <v>6551573</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3163,7 +3212,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3173,7 +3222,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Granlåga med hål från hål från födosök då granen levde.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3200,10 +3254,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112170162</v>
+        <v>112170169</v>
       </c>
       <c r="B23" t="n">
-        <v>5426</v>
+        <v>8367</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3212,47 +3266,43 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>101410</v>
+        <v>106554</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>693467</v>
+        <v>693585</v>
       </c>
       <c r="R23" t="n">
-        <v>6551537</v>
+        <v>6551594</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3284,7 +3334,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3294,7 +3344,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3303,28 +3353,27 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+          <t>Björklåga med delar av barken kvar.</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gammal solbelyst tall med flagnande gulfärgad bark.</t>
+          <t>Betula # Björklåga med delar av barken kvar.</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3342,10 +3391,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112170161</v>
+        <v>112170171</v>
       </c>
       <c r="B24" t="n">
-        <v>95020</v>
+        <v>94340</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3358,21 +3407,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2569</v>
+        <v>2590</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3382,10 +3431,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>693460</v>
+        <v>693557</v>
       </c>
       <c r="R24" t="n">
-        <v>6551545</v>
+        <v>6551601</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3417,7 +3466,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3427,7 +3476,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3438,6 +3487,11 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Grov barrträdslåga.</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3454,10 +3508,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112170169</v>
+        <v>112170168</v>
       </c>
       <c r="B25" t="n">
-        <v>8367</v>
+        <v>93334</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3470,39 +3524,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106554</v>
+        <v>2818</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>693585</v>
+        <v>693567</v>
       </c>
       <c r="R25" t="n">
-        <v>6551594</v>
+        <v>6551575</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3534,7 +3583,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3544,7 +3593,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3558,22 +3607,22 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>Björklåga med delar av barken kvar.</t>
+          <t>Klen tallåga i sumpmark.</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Betula # Björklåga med delar av barken kvar.</t>
+          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3591,10 +3640,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112170172</v>
+        <v>112170160</v>
       </c>
       <c r="B26" t="n">
-        <v>4717</v>
+        <v>93334</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3607,39 +3656,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>102306</v>
+        <v>2818</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693533</v>
+        <v>693345</v>
       </c>
       <c r="R26" t="n">
-        <v>6551643</v>
+        <v>6551560</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3671,7 +3715,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3681,7 +3725,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3692,26 +3736,6 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>Äldre grovbarkig levande gran.</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -4004,10 +4028,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170171</v>
+        <v>112170170</v>
       </c>
       <c r="B29" t="n">
-        <v>94340</v>
+        <v>56575</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4016,25 +4040,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2590</v>
+        <v>103021</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4047,10 +4071,10 @@
         <v>693557</v>
       </c>
       <c r="R29" t="n">
-        <v>6551601</v>
+        <v>6551604</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4100,11 +4124,6 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Grov barrträdslåga.</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -4121,10 +4140,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112170168</v>
+        <v>112175179</v>
       </c>
       <c r="B30" t="n">
-        <v>93334</v>
+        <v>93553</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4137,37 +4156,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2818</v>
+        <v>2180</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Gråberget, Ornö, Srm</t>
+          <t>Stora Körkroka (Stora Körkroka), Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>693567</v>
+        <v>693484</v>
       </c>
       <c r="R30" t="n">
-        <v>6551575</v>
+        <v>6551530</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4196,7 +4216,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4206,7 +4226,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4217,36 +4237,16 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Klen tallåga i sumpmark.</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Klen tallåga i sumpmark.</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+          <t>Måns Persson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
